--- a/biology/Botanique/Epichloë_festucae/Epichloë_festucae.xlsx
+++ b/biology/Botanique/Epichloë_festucae/Epichloë_festucae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Epichlo%C3%AB_festucae</t>
+          <t>Epichloë_festucae</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epichloe festucae (ou Epichloë festucae) est une espèce de champignons (Fungi) ascomycètes de la famille des Clavicipitaceae[1]. Il peut avoir un cycle purement endophyte et se transmettre par graine. Il peut également former des stromas ascogènes appelés quenouilles qui empêchent l'inflorescence de se développer.
-Dans la forme endophyte le maintien des interactions symbiotiques est sous la dépendance de NADPH oxydases[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epichloe festucae (ou Epichloë festucae) est une espèce de champignons (Fungi) ascomycètes de la famille des Clavicipitaceae. Il peut avoir un cycle purement endophyte et se transmettre par graine. Il peut également former des stromas ascogènes appelés quenouilles qui empêchent l'inflorescence de se développer.
+Dans la forme endophyte le maintien des interactions symbiotiques est sous la dépendance de NADPH oxydases
 </t>
         </is>
       </c>
